--- a/EXPORT_FILES/ВУНЦ=П2_ОВУ-24.xlsx
+++ b/EXPORT_FILES/ВУНЦ=П2_ОВУ-24.xlsx
@@ -62122,7 +62122,7 @@
         <f>SUM(D5,F5:G5)</f>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="3">
@@ -62136,7 +62136,7 @@
         <f ref="I5" si="6" t="shared">SUM(J5,L5:M5)</f>
       </c>
       <c r="J5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="3">
@@ -62150,7 +62150,7 @@
         <f>SUM(P5,R5:S5)</f>
       </c>
       <c r="P5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="3">
@@ -62192,7 +62192,7 @@
         <f>SUM(AF5,AH5:AI5)</f>
       </c>
       <c r="AF5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="14"/>
       <c r="AH5" s="3">
@@ -62206,7 +62206,7 @@
         <f>SUM(AL5,AN5:AO5)</f>
       </c>
       <c r="AL5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="14"/>
       <c r="AN5" s="3">
@@ -62228,42 +62228,42 @@
         <f>SUM(D6,F6:G6)</f>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="11">
         <f>SUM(J6,L6:M6)</f>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="12">
         <f ref="O6:O29" si="7" t="shared">SUM(P6,R6:S6)</f>
       </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T6" s="3"/>
       <c r="U6" s="28">
@@ -62286,7 +62286,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="3">
         <v>0</v>
@@ -62298,28 +62298,28 @@
         <f ref="AE6:AE29" si="10" t="shared">SUM(AF6,AH6:AI6)</f>
       </c>
       <c r="AF6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI6" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="9">
         <f ref="AK6:AK29" si="11" t="shared">SUM(AL6,AN6:AO6)</f>
       </c>
       <c r="AL6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO6" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP6" s="3"/>
     </row>
@@ -62334,7 +62334,7 @@
         <f ref="C7:C29" si="12" t="shared">SUM(D7,F7:G7)</f>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
@@ -62348,7 +62348,7 @@
         <f ref="I7:I29" si="13" t="shared">SUM(J7,L7:M7)</f>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="3">
@@ -62362,7 +62362,7 @@
         <f si="7" t="shared"/>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="3">
@@ -62404,7 +62404,7 @@
         <f si="10" t="shared"/>
       </c>
       <c r="AF7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3">
@@ -62418,7 +62418,7 @@
         <f si="11" t="shared"/>
       </c>
       <c r="AL7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3">
@@ -62440,7 +62440,7 @@
         <f si="12" t="shared"/>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
@@ -62454,7 +62454,7 @@
         <f si="13" t="shared"/>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="3">
@@ -62468,7 +62468,7 @@
         <f si="7" t="shared"/>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="3">
@@ -62510,7 +62510,7 @@
         <f si="10" t="shared"/>
       </c>
       <c r="AF8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3">
@@ -62524,7 +62524,7 @@
         <f si="11" t="shared"/>
       </c>
       <c r="AL8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3">
@@ -62553,7 +62553,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="11">
